--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medicationrequest.xlsx
@@ -1060,7 +1060,7 @@
   </si>
   <si>
     <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP-CORE】Medication要素の説明を参照のこと。</t>
+【JP-Core仕様】Medication要素の説明を参照のこと。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medicationrequest.xlsx
@@ -736,6 +736,36 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダーに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>orderInRp</t>
   </si>
   <si>
@@ -761,36 +791,6 @@
   </si>
   <si>
     <t>剤グループ内連番。</t>
-  </si>
-  <si>
-    <t>requestIdentifier</t>
-  </si>
-  <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -6737,10 +6737,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -7080,7 +7080,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -7196,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -7449,7 +7449,7 @@
         <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -7542,7 +7542,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -7654,7 +7654,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -7760,17 +7760,17 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -7785,13 +7785,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -8110,7 +8110,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -8226,7 +8226,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -8357,10 +8357,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>202</v>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -8473,13 +8473,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -8572,7 +8572,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -8684,7 +8684,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
